--- a/NewAudio/Audio.xlsx
+++ b/NewAudio/Audio.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PJ5\RunningMachine\Audio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PJ5\RunningMachine\NewAudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826219EE-4827-4419-9AD8-4AA3FD083154}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F15BB0-B086-4B9D-AF8D-87EC897942B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
   <si>
     <t>ID</t>
   </si>
@@ -310,6 +310,18 @@
   </si>
   <si>
     <t>Sau 30p</t>
+  </si>
+  <si>
+    <t>27/09</t>
+  </si>
+  <si>
+    <t>Chào mừng bạn đến với máy tập thông minh Hec Quyn. Bạn hãy dành 30 giây để nghe Huấn luyện viên Sport One hướng dẫn cách sử dụng máy.Phím start để bắt đầu. Phím Stốp để dừng lại. Nhấn và giữ phím Stốp 3 giây để tắt hoặc bật chế độ huấn luyện viên. Phím Program để chọn 1 trong 12 bài tập mặc định sẵn, máy tự động tăng giảm tốc độ và độ dốc trong khoảng thời gian 30 phút, chú ý những bài tập này thường dùng cho người tập quen. Phím Mode để bạn lựa chọn cài đặt như: thời gian ,khoảng cách  ,calo tiêu hao. Trước khi bắt đầu chạy bạn nên đi giày và dành khoảng 5 phút để khởi động bằng các chức năng đã tích hợp trên máynhư xoay eo,gập bụng. Bạn hãy khởi động cùng tôi nhé: 
+Xoay eo: bạn để bàn xoay xuống đất cạnh đầu máy tập, chân đứng chữ V trên bàn xoay, tay bám lên tay cầm của máy rồi xoay từ phải qua trái và ngược lại. chú ý: khi xoay  giữ nguyên vai chỉ chuyển động phần thân dưới.Xoay 15 đến 20 cái trong 1 hiệp, nên xoay từ 3 đến 5 hiệp.
+Gập bụng: 2 chân để vào giữa mút xốp của hai thanh thép ngang trên đầu máy, chân để trùng, lưng cong, ngả xuống hít sâu, gập lên thở ra.Gập 15 đến 20 cái trong 1 hiệp,Bạn nên  tập từ 3 đến 5 hiệp.
+Bây giờ bạn vào bài tập chạy cùng tôi nhé.
+Bước 1: Đầu tiên bạn cài khóa an toàn vào áo.
+Bước 2: Tay trái bạn đặt lên tay cầm của máy, tay phải ấn nút Start rồi đặt cả 2 tay lên tay cầm của máy.
+Bước 3: Với thời gian tập trung bình 20 đến 30 phút mỗi lần, 5 phút đầu bạn đi bộ và ấn nút Speed cộng để tăng tốc độ với vận tốc từ 1 đến 5 kilomet trên giờ để làm nóng cơ thể.Bạn có thể theo dõi các thông số như vận tốc, quãng đường, nhịp tim, lượng calo độ dốc trên màn hình</t>
   </si>
 </sst>
 </file>
@@ -331,7 +343,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,6 +362,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -363,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -389,7 +407,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -672,11 +696,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,13 +708,14 @@
     <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="73.85546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="57.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="62.28515625" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="4" max="4" width="73.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="57.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="63.5703125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="81.5703125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,11 +731,14 @@
       <c r="E1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+      <c r="G1" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="360" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -726,11 +754,14 @@
       <c r="E2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="G2" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -743,11 +774,11 @@
       <c r="D3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -759,7 +790,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -771,7 +802,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -783,7 +814,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -795,7 +826,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -809,11 +840,11 @@
       <c r="E8" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -825,7 +856,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -837,7 +868,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -849,7 +880,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -861,7 +892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -873,7 +904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -885,7 +916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -897,7 +928,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -959,7 +990,7 @@
       <c r="E20" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1061,7 +1092,7 @@
       <c r="E28" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1118,7 +1149,7 @@
       <c r="E32" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1132,7 +1163,7 @@
       <c r="C33" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="11" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1146,7 +1177,7 @@
       <c r="C34" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="11" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1160,7 +1191,7 @@
       <c r="C35" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="9" t="s">
         <v>87</v>
       </c>
     </row>

--- a/NewAudio/Audio.xlsx
+++ b/NewAudio/Audio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PJ5\RunningMachine\NewAudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F15BB0-B086-4B9D-AF8D-87EC897942B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974E9D6E-8E2E-48BB-840E-118C3E84DEAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="109">
   <si>
     <t>ID</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>27/09</t>
+  </si>
+  <si>
+    <t>Bước 3: Với thời gian tập trung bình 20 đến 30 phút mỗi lần, 5 phút đầu bạn đi bộ và ấn nút Speed cộng để tăng tốc độ với vận tốc từ 1 đến 5 kilomet trên giờ để làm nóng cơ thể.Bạn có thể theo dõi các thông số như vận tốc, quãng đường, nhịp tim, lượng calo độ dốc trên màn hình</t>
   </si>
   <si>
     <t>Chào mừng bạn đến với máy tập thông minh Hec Quyn. Bạn hãy dành 30 giây để nghe Huấn luyện viên Sport One hướng dẫn cách sử dụng máy.Phím start để bắt đầu. Phím Stốp để dừng lại. Nhấn và giữ phím Stốp 3 giây để tắt hoặc bật chế độ huấn luyện viên. Phím Program để chọn 1 trong 12 bài tập mặc định sẵn, máy tự động tăng giảm tốc độ và độ dốc trong khoảng thời gian 30 phút, chú ý những bài tập này thường dùng cho người tập quen. Phím Mode để bạn lựa chọn cài đặt như: thời gian ,khoảng cách  ,calo tiêu hao. Trước khi bắt đầu chạy bạn nên đi giày và dành khoảng 5 phút để khởi động bằng các chức năng đã tích hợp trên máynhư xoay eo,gập bụng. Bạn hãy khởi động cùng tôi nhé: 
@@ -320,8 +323,58 @@
 Gập bụng: 2 chân để vào giữa mút xốp của hai thanh thép ngang trên đầu máy, chân để trùng, lưng cong, ngả xuống hít sâu, gập lên thở ra.Gập 15 đến 20 cái trong 1 hiệp,Bạn nên  tập từ 3 đến 5 hiệp.
 Bây giờ bạn vào bài tập chạy cùng tôi nhé.
 Bước 1: Đầu tiên bạn cài khóa an toàn vào áo.
-Bước 2: Tay trái bạn đặt lên tay cầm của máy, tay phải ấn nút Start rồi đặt cả 2 tay lên tay cầm của máy.
-Bước 3: Với thời gian tập trung bình 20 đến 30 phút mỗi lần, 5 phút đầu bạn đi bộ và ấn nút Speed cộng để tăng tốc độ với vận tốc từ 1 đến 5 kilomet trên giờ để làm nóng cơ thể.Bạn có thể theo dõi các thông số như vận tốc, quãng đường, nhịp tim, lượng calo độ dốc trên màn hình</t>
+Bước 2: Tay trái bạn đặt lên tay cầm của máy, tay phải ấn nút Start rồi đặt cả 2 tay lên tay cầm của máy.</t>
+  </si>
+  <si>
+    <t>Bước 4: Với khoảng 10 phút tiếp theo bạn ấn phím Speed cộng để tăng lên tốc độ từ 5 đến 7 km trên giờ để chạy chậm , từ 7 đến 9 km trên giờ để chạy trung bình  . Để tăng độ khó và đốt nhiều hơn calo bạn hãy ấn nút mũi tên lên Incline bên trái để nâng độ dốc. Khi chạy mắt nhìn thẳng về phía trước, lưng thẳng , 2 tay co vuông góc đánh theo nhịp bước chân, khi chạy một nửa bàn chân trước tiếp xúc với bàn chạy, luôn giữ nhịp thở đều</t>
+  </si>
+  <si>
+    <t>Bước 5: Với khoảng 5 phút tiếp theo bạn có thể sử dụng phím Speed cộng để thay đổi tốc độ chạy nhanh từ 9 đến 14 kilomet trên giờ để đốt calo nhiều hơn, bạn luôn giữ hơi thở đều để không ảnh hưởng đến nhịp tim , nếu bạn cảm thấy mệt, hơi thở gấp hãy ấn nút speed trừ để giảm tốc độ cho phù hợp</t>
+  </si>
+  <si>
+    <t>Sau 20p</t>
+  </si>
+  <si>
+    <t>Bước 6: Với khoảng 5 đến 10 phút tiếp theo bạn có thể sử dụng phím Speed trừ và mũi tên xuống incline bên phải để giảm độ dốc và tốc độ cho phù hợp cơ thể không bị dừng vận động đột ngột</t>
+  </si>
+  <si>
+    <t>Bước 7: Bạn hãy ấn nút Stop để kết thức bài tập</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chúc mừng bạn đã hoàn thành buổi tập . Bạn không nên ngồi xuống ngay hãy đi lại nhẹ nhàng và hít thở đều
+Bước 8. Bạn sử dụng máy mát xa năm đến mười phút để thả lỏng cơ bằng cách khoác dây đai mát xa vào người và ấn công tắc mở để bắt đâu mát xa, di chuyển dây đai mát xa đến các vị trí như bụng ,lưng vai gáy , mông đùi, mỗi vị trí mát xa khoảng một phút rồi di chuyển dây đai đến vị trí khác .
+Bước 9. Khi tập luyện xong bạn nên uống nước lọc ,không lên uống nước có ga . Chú ý: khi uống nước theo ngụm nhỏ uống từ từ , không lên uống nhanh.
+• Với 30 phút tập luyện mỗi ngày bạn sẽ có một dáng vóc hoàng hảo, đặc biệt tốt cho hệ tim mạch, tăng cường trao đổi chất, giúp cơ thể cải thiện hệ thống xương khớp, tăng sự dẻo dai cho cơ thể.
+• Nếu bạn là một chuyên gia thường xuyên luyện tập có thể bỏ qua chức năng Huấn luyện viên để quan tâm đến các chức năng theo dõi tim mạch calo bằng cách nhấn nút Stop 3 giây khi khởi động máy.
+Với máy tập thông minh Hec Quyn bạn sẽ có trải nghiệm tập như chơi, dáng tuyệt vời. Cảm ơn bạn đã sử dụng tôi. Hẹn bạn vào buổi tập tiếp theo nhé.
+</t>
+  </si>
+  <si>
+    <t>luôn giữ hơi thở đều để không ảnh hưởng đến nhịp tim , nếu bạn cảm thấy mệt, hơi thở gấp hãy ấn nút speed trừ để giảm tốc độ cho phù hợp</t>
+  </si>
+  <si>
+    <t>Sau 5 phút đầu tiên, cứ 2 phút nhắc 1 lần</t>
+  </si>
+  <si>
+    <t>Sau khi lắp lại khóa an toàn</t>
+  </si>
+  <si>
+    <t>Lời chào sau khi lắp lại khóa an toàn</t>
+  </si>
+  <si>
+    <t>Khi tháo khóa an toàn</t>
+  </si>
+  <si>
+    <t>5 phút đầu tiên, nhắc tăng tốc sau 30s</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>Bạn hãy ấn nút Speed cộng để tăng dần tốc độ, nên bước đều chân ,thẳng lưng, mắt nhìn thẳng hướng về phía trước,lấy hơi thở đều để không ảnh hưởng đến nhịp tim, nếu bạn cảm thấy mệt, hơi thở gấp hãy ấn nút speed trừ để giảm tốc độ cho phù hợp</t>
   </si>
 </sst>
 </file>
@@ -343,7 +396,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,6 +421,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -381,14 +440,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -415,6 +468,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -698,593 +769,614 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="73.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="57.140625" style="3" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="63.5703125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="81.5703125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="38" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="81.5703125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="360" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="375" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5" t="s">
+    <row r="9" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="C24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="C25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="C26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="C29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="B30" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="B31" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="270" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="B32" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="B33" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5" t="s">
+      <c r="B35" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="B36" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>35</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>36</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="5"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="5"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="5"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="5"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="5"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="5"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="5"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C45" s="5"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C46" s="5"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C47" s="5"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C48" s="5"/>
+      <c r="C38" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C48" s="3"/>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="5"/>
+      <c r="C49" s="3"/>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="5"/>
+      <c r="C50" s="3"/>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="5"/>
+      <c r="C51" s="3"/>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="5"/>
+      <c r="C52" s="3"/>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="5"/>
+      <c r="C53" s="3"/>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="5"/>
+      <c r="C54" s="3"/>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="5"/>
+      <c r="C55" s="3"/>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="5"/>
+      <c r="C56" s="3"/>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57" s="5"/>
+      <c r="C57" s="3"/>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="4"/>
+      <c r="C58" s="2"/>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C59" s="4"/>
+      <c r="C59" s="2"/>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="4"/>
+      <c r="C60" s="2"/>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="4"/>
+      <c r="C61" s="2"/>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C62" s="4"/>
+      <c r="C62" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/NewAudio/Audio.xlsx
+++ b/NewAudio/Audio.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PJ5\RunningMachine\NewAudio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\RunningMachine\NewAudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974E9D6E-8E2E-48BB-840E-118C3E84DEAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -353,9 +352,6 @@
     <t>luôn giữ hơi thở đều để không ảnh hưởng đến nhịp tim , nếu bạn cảm thấy mệt, hơi thở gấp hãy ấn nút speed trừ để giảm tốc độ cho phù hợp</t>
   </si>
   <si>
-    <t>Sau 5 phút đầu tiên, cứ 2 phút nhắc 1 lần</t>
-  </si>
-  <si>
     <t>Sau khi lắp lại khóa an toàn</t>
   </si>
   <si>
@@ -365,9 +361,6 @@
     <t>Khi tháo khóa an toàn</t>
   </si>
   <si>
-    <t>5 phút đầu tiên, nhắc tăng tốc sau 30s</t>
-  </si>
-  <si>
     <t>037</t>
   </si>
   <si>
@@ -375,12 +368,18 @@
   </si>
   <si>
     <t>Bạn hãy ấn nút Speed cộng để tăng dần tốc độ, nên bước đều chân ,thẳng lưng, mắt nhìn thẳng hướng về phía trước,lấy hơi thở đều để không ảnh hưởng đến nhịp tim, nếu bạn cảm thấy mệt, hơi thở gấp hãy ấn nút speed trừ để giảm tốc độ cho phù hợp</t>
+  </si>
+  <si>
+    <t>Sau 5 phút đầu tiên, cứ 2 phút nhắc 1 lần -&gt; 1p 1 lần</t>
+  </si>
+  <si>
+    <t>5 phút đầu tiên, nhắc tăng tốc sau 1p</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -766,27 +765,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7265625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="6.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7265625" style="4" customWidth="1"/>
     <col min="5" max="5" width="38" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="81.5703125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="24.453125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="81.54296875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -809,7 +808,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="406" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -832,7 +831,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="375" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -852,7 +851,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -863,7 +862,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -874,7 +873,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -885,7 +884,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -896,7 +895,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -916,7 +915,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -927,7 +926,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -938,7 +937,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -949,7 +948,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -960,7 +959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -971,7 +970,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -982,7 +981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -993,7 +992,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1004,7 +1003,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1015,7 +1014,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1026,7 +1025,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1037,12 +1036,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>21</v>
@@ -1060,7 +1059,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1071,7 +1070,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1082,7 +1081,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1093,7 +1092,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1104,7 +1103,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1115,7 +1114,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1126,7 +1125,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1137,7 +1136,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1154,7 +1153,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1165,12 +1164,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>60</v>
@@ -1179,12 +1178,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>63</v>
@@ -1196,12 +1195,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="270" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="261" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>64</v>
@@ -1216,7 +1215,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1233,7 +1232,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1250,7 +1249,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1267,7 +1266,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1282,100 +1281,100 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>86</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C39" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C62" s="2"/>
     </row>
   </sheetData>

--- a/NewAudio/Audio.xlsx
+++ b/NewAudio/Audio.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\RunningMachine\NewAudio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PJ5\RunningMachine\NewAudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D51A719-FB78-4AB7-B1A7-81B722299CA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
   <si>
     <t>ID</t>
   </si>
@@ -375,11 +376,14 @@
   <si>
     <t>5 phút đầu tiên, nhắc tăng tốc sau 1p</t>
   </si>
+  <si>
+    <t>Bạn đang luyện tập với bài tập mặc định, chú ý giữ an toàn khi máy thay đổi độ dốc và tốc độ nhé</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -439,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -484,6 +488,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -765,27 +772,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7265625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="6.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7265625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="38" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.453125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="81.54296875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="38" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" style="7" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="81.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="83.5703125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -807,8 +815,11 @@
       <c r="G1" s="15" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="406" x14ac:dyDescent="0.35">
+      <c r="H1" s="16">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -831,7 +842,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="333.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -851,7 +862,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -862,7 +873,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -873,7 +884,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -884,7 +895,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -895,7 +906,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -915,7 +926,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -926,7 +937,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -937,7 +948,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -948,7 +959,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -959,7 +970,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -970,7 +981,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -981,7 +992,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -992,7 +1003,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1003,7 +1014,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1014,7 +1025,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1025,7 +1036,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1036,7 +1047,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1059,7 +1070,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1070,7 +1081,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1081,7 +1092,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1092,7 +1103,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1103,7 +1114,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1114,7 +1125,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1125,7 +1136,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1136,7 +1147,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1153,7 +1164,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1164,7 +1175,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1178,7 +1189,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1195,7 +1206,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="261" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="270" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1215,7 +1226,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1232,7 +1243,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1249,7 +1260,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1266,7 +1277,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1281,7 +1292,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1295,86 +1306,89 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H38" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="2"/>
     </row>
   </sheetData>

--- a/NewAudio/Audio.xlsx
+++ b/NewAudio/Audio.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PJ5\RunningMachine\NewAudio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\RunningMachine\NewAudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D51A719-FB78-4AB7-B1A7-81B722299CA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -383,7 +382,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -772,28 +771,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7265625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="6.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7265625" style="4" customWidth="1"/>
     <col min="5" max="5" width="38" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" style="7" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="81.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="83.5703125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="24.453125" style="7" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="81.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="83.54296875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -819,7 +818,7 @@
         <v>44114</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="406" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -842,7 +841,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="375" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -862,7 +861,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -873,7 +872,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -884,7 +883,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -895,7 +894,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -906,7 +905,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -926,7 +925,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -937,7 +936,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -948,7 +947,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -959,7 +958,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -970,7 +969,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -981,7 +980,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -992,7 +991,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1003,7 +1002,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1014,7 +1013,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1025,7 +1024,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1036,7 +1035,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1047,7 +1046,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1070,7 +1069,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1081,7 +1080,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1092,7 +1091,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1103,7 +1102,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1114,7 +1113,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1125,7 +1124,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1136,7 +1135,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1147,7 +1146,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1164,7 +1163,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1175,7 +1174,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1189,7 +1188,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1206,7 +1205,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="270" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="261" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1226,7 +1225,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1243,7 +1242,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1260,7 +1259,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1277,7 +1276,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1292,7 +1291,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1306,7 +1305,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1317,78 +1316,78 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C39" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C62" s="2"/>
     </row>
   </sheetData>
